--- a/Skeletons/UserProcessSkeleton_002b/Resources/Stocks Information.xlsx
+++ b/Skeletons/UserProcessSkeleton_002b/Resources/Stocks Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Project2\stockstober\Skeletons\UserProcessSkeleton_002b\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2627A0-8844-4731-95DE-A2F47460761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E174C140-C25F-429F-AB19-B43F8297D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="765" windowWidth="14580" windowHeight="8745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Stock Name</t>
   </si>
@@ -776,7 +776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B413A35-9749-488C-AD80-FCB0CA68C243}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1 A1:F16"/>
@@ -817,7 +817,7 @@
         <v>44511</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>2929.79</v>
+        <v>28.65</v>
       </c>
       <c r="F2" s="9">
-        <v>2929.79</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>44511</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
@@ -846,10 +846,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="10">
-        <v>331.25</v>
+        <v>19.27</v>
       </c>
       <c r="F3" s="11">
-        <v>331.25</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>44511</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>33</v>
@@ -866,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="12">
-        <v>2942.14</v>
+        <v>28.64</v>
       </c>
       <c r="F4" s="9">
-        <v>2942.14</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,19 +877,19 @@
         <v>44511</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5" s="10">
-        <v>38</v>
+        <v>19.29</v>
       </c>
       <c r="F5" s="11">
-        <v>380</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>44511</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>33</v>
@@ -906,15 +906,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="12">
-        <v>148.96</v>
+        <v>28.67</v>
       </c>
       <c r="F6" s="9">
-        <v>148.96</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>32</v>
@@ -923,113 +923,113 @@
         <v>33</v>
       </c>
       <c r="D7" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>19.59</v>
+        <v>19.34</v>
       </c>
       <c r="F7" s="11">
-        <v>97.95</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12">
-        <v>41.52</v>
+        <v>2929.79</v>
       </c>
       <c r="F8" s="9">
-        <v>415.2</v>
+        <v>2929.79</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>214</v>
+        <v>331.25</v>
       </c>
       <c r="F9" s="11">
-        <v>1070</v>
+        <v>331.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="12">
-        <v>123</v>
+        <v>2942.14</v>
       </c>
       <c r="F10" s="9">
-        <v>984</v>
+        <v>2942.14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10">
-        <v>333.9</v>
+        <v>38</v>
       </c>
       <c r="F11" s="11">
-        <v>1001.7</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44503</v>
+        <v>44511</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12">
-        <v>211.47</v>
+        <v>148.96</v>
       </c>
       <c r="F12" s="9">
-        <v>1057.3499999999999</v>
+        <v>148.96</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,19 +1037,19 @@
         <v>44503</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="10">
-        <v>179.9</v>
+        <v>19.59</v>
       </c>
       <c r="F13" s="11">
-        <v>1079.4000000000001</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,19 +1057,19 @@
         <v>44503</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12">
-        <v>30.24</v>
+        <v>41.52</v>
       </c>
       <c r="F14" s="9">
-        <v>1058.4000000000001</v>
+        <v>415.2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,19 +1077,19 @@
         <v>44503</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10">
-        <v>1177.33</v>
+        <v>214</v>
       </c>
       <c r="F15" s="11">
-        <v>2354.66</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,19 +1097,19 @@
         <v>44503</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12">
-        <v>150.38999999999999</v>
+        <v>123</v>
       </c>
       <c r="F16" s="9">
-        <v>1052.73</v>
+        <v>984</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,18 +1117,138 @@
         <v>44503</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>333.9</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1001.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44503</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15">
+        <v>211.47</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1057.3499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>44503</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15">
+        <v>179.9</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1079.4000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44503</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="15">
+        <v>30.24</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1058.4000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44503</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1177.33</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2354.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44503</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="15">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1052.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44503</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1">
         <v>55</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E23" s="15">
         <v>19.510000000000002</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F23" s="15">
         <v>1073.05</v>
       </c>
     </row>
